--- a/project/app/planilhas_preenchidas/planilhas/ModeloFUNDEP.xlsx
+++ b/project/app/planilhas_preenchidas/planilhas/ModeloFUNDEP.xlsx
@@ -30,11 +30,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="000000000000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="R$ #,##0.00"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <name val="Arial"/>
       <sz val="10"/>
@@ -240,8 +241,16 @@
       <sz val="10"/>
       <u val="single"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
@@ -439,8 +448,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d9d9d9"/>
+        <bgColor rgb="00d9d9d9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -719,8 +734,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
@@ -766,8 +788,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="24" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -903,8 +928,27 @@
     <xf numFmtId="164" fontId="25" fillId="34" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="45">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="45">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="29" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="46">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Ênfase2" xfId="2" builtinId="34"/>
@@ -950,6 +994,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25"/>
     <cellStyle name="Normal 2" xfId="43"/>
     <cellStyle name="Vírgula 2" xfId="44"/>
+    <cellStyle name="custom_number_format" xfId="45" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1799,7 +1844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
@@ -2616,7 +2661,7 @@
       <c r="B3" s="47" t="n"/>
       <c r="C3" s="26" t="inlineStr">
         <is>
-          <t>COMUNIDADE EM GERAL</t>
+          <t>Fundacao De Desenvolvimento Da Pesquisa-FUNDEP</t>
         </is>
       </c>
       <c r="D3" s="47" t="n"/>
@@ -2634,7 +2679,7 @@
       <c r="H3" s="46" t="n"/>
       <c r="I3" s="40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>27192.03.01/2021.01.00</t>
         </is>
       </c>
       <c r="J3" s="47" t="n"/>
@@ -2648,7 +2693,7 @@
       <c r="B4" s="47" t="n"/>
       <c r="C4" s="26" t="inlineStr">
         <is>
-          <t>FUB/UnB Idiomas - "Apoio a Gestão Administrativa e Financeira do Programa Permanente de Extensão UnB Idiomas."</t>
+          <t>FUNDEP/FGA - Desenvolvimento de um veículo urbano leve híbrido-flex (VHF-URBANO)</t>
         </is>
       </c>
       <c r="D4" s="46" t="n"/>
@@ -2680,7 +2725,7 @@
       <c r="B5" s="47" t="n"/>
       <c r="C5" s="26" t="inlineStr">
         <is>
-          <t>EDNA GISELA PIZARRO</t>
+          <t>ALESSANDRO BORGES DE SOUSA OLIVEIRA</t>
         </is>
       </c>
       <c r="D5" s="46" t="n"/>
@@ -2692,7 +2737,11 @@
         </is>
       </c>
       <c r="H5" s="46" t="n"/>
-      <c r="I5" s="30" t="n"/>
+      <c r="I5" s="59" t="inlineStr">
+        <is>
+          <t>01/04/2023 a []</t>
+        </is>
+      </c>
       <c r="J5" s="47" t="n"/>
     </row>
     <row r="6" ht="25.15" customFormat="1" customHeight="1" s="8">
@@ -2748,17 +2797,1883 @@
       </c>
     </row>
     <row r="7" ht="12.6" customHeight="1">
-      <c r="C7" s="7" t="n"/>
+      <c r="A7" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="54" t="inlineStr">
+        <is>
+          <t>Fundacao De Desenvolvimento Da Pesquisa-FUNDEP</t>
+        </is>
+      </c>
+      <c r="D7" s="53" t="inlineStr">
+        <is>
+          <t>18720938000141</t>
+        </is>
+      </c>
+      <c r="E7" s="53" t="inlineStr">
+        <is>
+          <t>Receitas</t>
+        </is>
+      </c>
+      <c r="F7" s="53" t="n"/>
+      <c r="G7" s="53" t="n"/>
+      <c r="H7" s="53" t="n"/>
+      <c r="I7" s="53" t="inlineStr">
+        <is>
+          <t>17/04/2023</t>
+        </is>
+      </c>
+      <c r="J7" s="55" t="n">
+        <v>8316</v>
+      </c>
       <c r="M7" s="14" t="n"/>
     </row>
+    <row r="8">
+      <c r="A8" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="53" t="inlineStr">
+        <is>
+          <t>COMANDO AUTO PECAS LTDA</t>
+        </is>
+      </c>
+      <c r="D8" s="53" t="inlineStr">
+        <is>
+          <t>01032275000250</t>
+        </is>
+      </c>
+      <c r="E8" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material de Consumo </t>
+        </is>
+      </c>
+      <c r="F8" s="53" t="n"/>
+      <c r="G8" s="53" t="inlineStr">
+        <is>
+          <t>06/04/2023</t>
+        </is>
+      </c>
+      <c r="H8" s="53" t="n"/>
+      <c r="I8" s="53" t="inlineStr">
+        <is>
+          <t>12/04/2023</t>
+        </is>
+      </c>
+      <c r="J8" s="55" t="n">
+        <v>730.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="53" t="inlineStr">
+        <is>
+          <t>HUGNEY MACEDO FERREIRA ME - ME</t>
+        </is>
+      </c>
+      <c r="D9" s="53" t="inlineStr">
+        <is>
+          <t>14855232000136</t>
+        </is>
+      </c>
+      <c r="E9" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material de Consumo </t>
+        </is>
+      </c>
+      <c r="F9" s="53" t="n"/>
+      <c r="G9" s="53" t="inlineStr">
+        <is>
+          <t>14/04/2023</t>
+        </is>
+      </c>
+      <c r="H9" s="53" t="n"/>
+      <c r="I9" s="53" t="inlineStr">
+        <is>
+          <t>24/04/2023</t>
+        </is>
+      </c>
+      <c r="J9" s="55" t="n">
+        <v>263.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="53" t="inlineStr">
+        <is>
+          <t>VENTANA SERRA DO BRASIL AGENCIAMENTO DE CARGAS LTDA</t>
+        </is>
+      </c>
+      <c r="D10" s="53" t="inlineStr">
+        <is>
+          <t>04915315000110</t>
+        </is>
+      </c>
+      <c r="E10" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Acessórias de Importação</t>
+        </is>
+      </c>
+      <c r="F10" s="53" t="n"/>
+      <c r="G10" s="53" t="n"/>
+      <c r="H10" s="53" t="n"/>
+      <c r="I10" s="53" t="inlineStr">
+        <is>
+          <t>27/04/2023</t>
+        </is>
+      </c>
+      <c r="J10" s="55" t="n">
+        <v>1616.38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="53" t="inlineStr">
+        <is>
+          <t>PROESI COMPONENTES ELETRONICOS LTDA</t>
+        </is>
+      </c>
+      <c r="D11" s="53" t="inlineStr">
+        <is>
+          <t>10428528000110</t>
+        </is>
+      </c>
+      <c r="E11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material de Consumo </t>
+        </is>
+      </c>
+      <c r="F11" s="53" t="n"/>
+      <c r="G11" s="53" t="inlineStr">
+        <is>
+          <t>13/04/2023</t>
+        </is>
+      </c>
+      <c r="H11" s="53" t="n"/>
+      <c r="I11" s="53" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="J11" s="55" t="n">
+        <v>539.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="53" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="53" t="inlineStr">
+        <is>
+          <t>ELETROPECAS COMERCIAL ELETRONICA LTDA</t>
+        </is>
+      </c>
+      <c r="D12" s="53" t="inlineStr">
+        <is>
+          <t>91825422000151</t>
+        </is>
+      </c>
+      <c r="E12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material de Consumo </t>
+        </is>
+      </c>
+      <c r="F12" s="53" t="n"/>
+      <c r="G12" s="53" t="inlineStr">
+        <is>
+          <t>24/04/2023</t>
+        </is>
+      </c>
+      <c r="H12" s="53" t="n"/>
+      <c r="I12" s="53" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="J12" s="55" t="n">
+        <v>565.63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="53" t="inlineStr">
+        <is>
+          <t>JOAO MARCOS HILARIO BARCELOS JUNIOR</t>
+        </is>
+      </c>
+      <c r="D13" s="53" t="inlineStr">
+        <is>
+          <t>06060776183</t>
+        </is>
+      </c>
+      <c r="E13" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F13" s="53" t="n"/>
+      <c r="G13" s="53" t="n"/>
+      <c r="H13" s="53" t="n"/>
+      <c r="I13" s="53" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="J13" s="55" t="n">
+        <v>2415</v>
+      </c>
+    </row>
     <row r="14">
+      <c r="A14" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="53" t="inlineStr">
+        <is>
+          <t>JOAO MARCOS HILARIO BARCELOS JUNIOR</t>
+        </is>
+      </c>
+      <c r="D14" s="53" t="inlineStr">
+        <is>
+          <t>06060776183</t>
+        </is>
+      </c>
+      <c r="E14" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F14" s="53" t="n"/>
+      <c r="G14" s="53" t="n"/>
+      <c r="H14" s="53" t="n"/>
+      <c r="I14" s="53" t="inlineStr">
+        <is>
+          <t>07/06/2023</t>
+        </is>
+      </c>
+      <c r="J14" s="55" t="n">
+        <v>2415</v>
+      </c>
       <c r="N14" s="43" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="53" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="53" t="inlineStr">
+        <is>
+          <t>JOAO MARCOS HILARIO BARCELOS JUNIOR</t>
+        </is>
+      </c>
+      <c r="D15" s="53" t="inlineStr">
+        <is>
+          <t>06060776183</t>
+        </is>
+      </c>
+      <c r="E15" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F15" s="53" t="n"/>
+      <c r="G15" s="53" t="n"/>
+      <c r="H15" s="53" t="n"/>
+      <c r="I15" s="53" t="inlineStr">
+        <is>
+          <t>07/07/2023</t>
+        </is>
+      </c>
+      <c r="J15" s="55" t="n">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="53" t="inlineStr">
+        <is>
+          <t>JOAO MARCOS HILARIO BARCELOS JUNIOR</t>
+        </is>
+      </c>
+      <c r="D16" s="53" t="inlineStr">
+        <is>
+          <t>06060776183</t>
+        </is>
+      </c>
+      <c r="E16" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F16" s="53" t="n"/>
+      <c r="G16" s="53" t="n"/>
+      <c r="H16" s="53" t="n"/>
+      <c r="I16" s="53" t="inlineStr">
+        <is>
+          <t>07/08/2023</t>
+        </is>
+      </c>
+      <c r="J16" s="55" t="n">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="53" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="53" t="inlineStr">
+        <is>
+          <t>JOAO MARCOS HILARIO BARCELOS JUNIOR</t>
+        </is>
+      </c>
+      <c r="D17" s="53" t="inlineStr">
+        <is>
+          <t>06060776183</t>
+        </is>
+      </c>
+      <c r="E17" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F17" s="53" t="n"/>
+      <c r="G17" s="53" t="n"/>
+      <c r="H17" s="53" t="n"/>
+      <c r="I17" s="53" t="inlineStr">
+        <is>
+          <t>08/09/2023</t>
+        </is>
+      </c>
+      <c r="J17" s="55" t="n">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="53" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="53" t="inlineStr">
+        <is>
+          <t>JOAO MARCOS HILARIO BARCELOS JUNIOR</t>
+        </is>
+      </c>
+      <c r="D18" s="53" t="inlineStr">
+        <is>
+          <t>06060776183</t>
+        </is>
+      </c>
+      <c r="E18" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F18" s="53" t="n"/>
+      <c r="G18" s="53" t="n"/>
+      <c r="H18" s="53" t="n"/>
+      <c r="I18" s="53" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="J18" s="55" t="n">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="53" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" s="53" t="inlineStr">
+        <is>
+          <t>JOAO MARCOS HILARIO BARCELOS JUNIOR</t>
+        </is>
+      </c>
+      <c r="D19" s="53" t="inlineStr">
+        <is>
+          <t>06060776183</t>
+        </is>
+      </c>
+      <c r="E19" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F19" s="53" t="n"/>
+      <c r="G19" s="53" t="n"/>
+      <c r="H19" s="53" t="n"/>
+      <c r="I19" s="53" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
+        </is>
+      </c>
+      <c r="J19" s="55" t="n">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="53" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" s="53" t="inlineStr">
+        <is>
+          <t>Inframerica Concessionaria Do Aeroporto De Brasília</t>
+        </is>
+      </c>
+      <c r="D20" s="53" t="inlineStr">
+        <is>
+          <t>15559082000186</t>
+        </is>
+      </c>
+      <c r="E20" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Acessórias de Importação</t>
+        </is>
+      </c>
+      <c r="F20" s="53" t="n"/>
+      <c r="G20" s="53" t="n"/>
+      <c r="H20" s="53" t="n"/>
+      <c r="I20" s="53" t="inlineStr">
+        <is>
+          <t>05/05/2023</t>
+        </is>
+      </c>
+      <c r="J20" s="55" t="n">
+        <v>557.26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="53" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" s="53" t="n"/>
+      <c r="D21" s="53" t="n"/>
+      <c r="E21" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Acessórias de Importação</t>
+        </is>
+      </c>
+      <c r="F21" s="53" t="n"/>
+      <c r="G21" s="53" t="n"/>
+      <c r="H21" s="53" t="n"/>
+      <c r="I21" s="53" t="inlineStr">
+        <is>
+          <t>17/05/2023</t>
+        </is>
+      </c>
+      <c r="J21" s="55" t="n">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="53" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" s="53" t="inlineStr">
+        <is>
+          <t>BANCO DO BRASIL S.A.</t>
+        </is>
+      </c>
+      <c r="D22" s="53" t="inlineStr">
+        <is>
+          <t>00000000441210</t>
+        </is>
+      </c>
+      <c r="E22" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Acessórias de Importação</t>
+        </is>
+      </c>
+      <c r="F22" s="53" t="n"/>
+      <c r="G22" s="53" t="n"/>
+      <c r="H22" s="53" t="n"/>
+      <c r="I22" s="53" t="inlineStr">
+        <is>
+          <t>18/04/2023</t>
+        </is>
+      </c>
+      <c r="J22" s="55" t="n">
+        <v>154.23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="53" t="n">
+        <v>17</v>
+      </c>
+      <c r="C23" s="53" t="inlineStr">
+        <is>
+          <t>BANCO DO BRASIL S.A.</t>
+        </is>
+      </c>
+      <c r="D23" s="53" t="inlineStr">
+        <is>
+          <t>00000000441210</t>
+        </is>
+      </c>
+      <c r="E23" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras</t>
+        </is>
+      </c>
+      <c r="F23" s="53" t="n"/>
+      <c r="G23" s="53" t="n"/>
+      <c r="H23" s="53" t="n"/>
+      <c r="I23" s="53" t="inlineStr">
+        <is>
+          <t>28/04/2023</t>
+        </is>
+      </c>
+      <c r="J23" s="55" t="n">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="53" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" s="53" t="n"/>
+      <c r="D24" s="53" t="n"/>
+      <c r="E24" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F24" s="53" t="n"/>
+      <c r="G24" s="53" t="n"/>
+      <c r="H24" s="53" t="n"/>
+      <c r="I24" s="53" t="inlineStr">
+        <is>
+          <t>28/04/2023</t>
+        </is>
+      </c>
+      <c r="J24" s="55" t="n">
+        <v>1384.82</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="53" t="n">
+        <v>19</v>
+      </c>
+      <c r="C25" s="53" t="n"/>
+      <c r="D25" s="53" t="n"/>
+      <c r="E25" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F25" s="53" t="n"/>
+      <c r="G25" s="53" t="n"/>
+      <c r="H25" s="53" t="n"/>
+      <c r="I25" s="53" t="inlineStr">
+        <is>
+          <t>28/04/2023</t>
+        </is>
+      </c>
+      <c r="J25" s="55" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="53" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" s="53" t="inlineStr">
+        <is>
+          <t>RYNDACK COMERCIO E IMPORTACAO LTDA</t>
+        </is>
+      </c>
+      <c r="D26" s="53" t="inlineStr">
+        <is>
+          <t>19677165000120</t>
+        </is>
+      </c>
+      <c r="E26" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material de Consumo </t>
+        </is>
+      </c>
+      <c r="F26" s="53" t="n"/>
+      <c r="G26" s="53" t="inlineStr">
+        <is>
+          <t>17/05/2023</t>
+        </is>
+      </c>
+      <c r="H26" s="53" t="n"/>
+      <c r="I26" s="53" t="inlineStr">
+        <is>
+          <t>12/06/2023</t>
+        </is>
+      </c>
+      <c r="J26" s="55" t="n">
+        <v>983.04</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="53" t="n">
+        <v>21</v>
+      </c>
+      <c r="C27" s="53" t="inlineStr">
+        <is>
+          <t>BANCO DO BRASIL S.A.</t>
+        </is>
+      </c>
+      <c r="D27" s="53" t="inlineStr">
+        <is>
+          <t>00000000441210</t>
+        </is>
+      </c>
+      <c r="E27" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras</t>
+        </is>
+      </c>
+      <c r="F27" s="53" t="n"/>
+      <c r="G27" s="53" t="n"/>
+      <c r="H27" s="53" t="n"/>
+      <c r="I27" s="53" t="inlineStr">
+        <is>
+          <t>31/05/2023</t>
+        </is>
+      </c>
+      <c r="J27" s="55" t="n">
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="53" t="n">
+        <v>22</v>
+      </c>
+      <c r="C28" s="53" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN COMPANHIA BRASILEIRA DE BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="D28" s="53" t="inlineStr">
+        <is>
+          <t>01438784001411</t>
+        </is>
+      </c>
+      <c r="E28" s="53" t="inlineStr">
+        <is>
+          <t>Obras e Instalações</t>
+        </is>
+      </c>
+      <c r="F28" s="53" t="n"/>
+      <c r="G28" s="53" t="inlineStr">
+        <is>
+          <t>19/05/2023</t>
+        </is>
+      </c>
+      <c r="H28" s="53" t="n"/>
+      <c r="I28" s="53" t="inlineStr">
+        <is>
+          <t>18/05/2023</t>
+        </is>
+      </c>
+      <c r="J28" s="55" t="n">
+        <v>189.9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="53" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" s="53" t="inlineStr">
+        <is>
+          <t>LEROY MERLIN COMPANHIA BRASILEIRA DE BRICOLAGEM</t>
+        </is>
+      </c>
+      <c r="D29" s="53" t="inlineStr">
+        <is>
+          <t>01438784001411</t>
+        </is>
+      </c>
+      <c r="E29" s="53" t="inlineStr">
+        <is>
+          <t>Obras e Instalações</t>
+        </is>
+      </c>
+      <c r="F29" s="53" t="n"/>
+      <c r="G29" s="53" t="inlineStr">
+        <is>
+          <t>19/05/2023</t>
+        </is>
+      </c>
+      <c r="H29" s="53" t="n"/>
+      <c r="I29" s="53" t="inlineStr">
+        <is>
+          <t>18/05/2023</t>
+        </is>
+      </c>
+      <c r="J29" s="55" t="n">
+        <v>359.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="53" t="n">
+        <v>24</v>
+      </c>
+      <c r="C30" s="53" t="inlineStr">
+        <is>
+          <t>MSI - ELETRONICA E SERVIOS LTDA</t>
+        </is>
+      </c>
+      <c r="D30" s="53" t="inlineStr">
+        <is>
+          <t>08663925000124</t>
+        </is>
+      </c>
+      <c r="E30" s="53" t="inlineStr">
+        <is>
+          <t>Obras e Instalações</t>
+        </is>
+      </c>
+      <c r="F30" s="53" t="n"/>
+      <c r="G30" s="53" t="inlineStr">
+        <is>
+          <t>13/06/2023</t>
+        </is>
+      </c>
+      <c r="H30" s="53" t="n"/>
+      <c r="I30" s="53" t="inlineStr">
+        <is>
+          <t>21/06/2023</t>
+        </is>
+      </c>
+      <c r="J30" s="55" t="n">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="53" t="n">
+        <v>25</v>
+      </c>
+      <c r="C31" s="53" t="inlineStr">
+        <is>
+          <t>Fundação de Empreendimentos Científicos e Tecnológicos</t>
+        </is>
+      </c>
+      <c r="D31" s="53" t="inlineStr">
+        <is>
+          <t>37116704000134</t>
+        </is>
+      </c>
+      <c r="E31" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Operacionais e Administrativas - Finatec</t>
+        </is>
+      </c>
+      <c r="F31" s="53" t="n"/>
+      <c r="G31" s="53" t="n"/>
+      <c r="H31" s="53" t="n"/>
+      <c r="I31" s="53" t="inlineStr">
+        <is>
+          <t>22/06/2023</t>
+        </is>
+      </c>
+      <c r="J31" s="55" t="n">
+        <v>302.32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="53" t="n">
+        <v>26</v>
+      </c>
+      <c r="C32" s="53" t="inlineStr">
+        <is>
+          <t>Fundação Universidade de Brasília - FUB/UnB</t>
+        </is>
+      </c>
+      <c r="D32" s="53" t="inlineStr">
+        <is>
+          <t>00038174000143</t>
+        </is>
+      </c>
+      <c r="E32" s="53" t="inlineStr">
+        <is>
+          <t>Ressarcimento - Unidade Gestora</t>
+        </is>
+      </c>
+      <c r="F32" s="53" t="n"/>
+      <c r="G32" s="53" t="n"/>
+      <c r="H32" s="53" t="n"/>
+      <c r="I32" s="53" t="inlineStr">
+        <is>
+          <t>29/06/2023</t>
+        </is>
+      </c>
+      <c r="J32" s="55" t="n">
+        <v>226.84</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="53" t="n">
+        <v>27</v>
+      </c>
+      <c r="C33" s="53" t="inlineStr">
+        <is>
+          <t>Fundação Universidade de Brasília - FUB/UnB</t>
+        </is>
+      </c>
+      <c r="D33" s="53" t="inlineStr">
+        <is>
+          <t>00038174000143</t>
+        </is>
+      </c>
+      <c r="E33" s="53" t="inlineStr">
+        <is>
+          <t>Ressarcimento - UnB</t>
+        </is>
+      </c>
+      <c r="F33" s="53" t="n"/>
+      <c r="G33" s="53" t="n"/>
+      <c r="H33" s="53" t="n"/>
+      <c r="I33" s="53" t="inlineStr">
+        <is>
+          <t>29/06/2023</t>
+        </is>
+      </c>
+      <c r="J33" s="55" t="n">
+        <v>226.84</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="53" t="n">
+        <v>28</v>
+      </c>
+      <c r="C34" s="53" t="n"/>
+      <c r="D34" s="53" t="n"/>
+      <c r="E34" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F34" s="53" t="n"/>
+      <c r="G34" s="53" t="n"/>
+      <c r="H34" s="53" t="n"/>
+      <c r="I34" s="53" t="inlineStr">
+        <is>
+          <t>31/05/2023</t>
+        </is>
+      </c>
+      <c r="J34" s="55" t="n">
+        <v>1483.74</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="53" t="n">
+        <v>29</v>
+      </c>
+      <c r="C35" s="53" t="n"/>
+      <c r="D35" s="53" t="n"/>
+      <c r="E35" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F35" s="53" t="n"/>
+      <c r="G35" s="53" t="n"/>
+      <c r="H35" s="53" t="n"/>
+      <c r="I35" s="53" t="inlineStr">
+        <is>
+          <t>31/05/2023</t>
+        </is>
+      </c>
+      <c r="J35" s="55" t="n">
+        <v>1705.13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="53" t="n">
+        <v>30</v>
+      </c>
+      <c r="C36" s="53" t="inlineStr">
+        <is>
+          <t>BANCO DO BRASIL S.A.</t>
+        </is>
+      </c>
+      <c r="D36" s="53" t="inlineStr">
+        <is>
+          <t>00000000441210</t>
+        </is>
+      </c>
+      <c r="E36" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras</t>
+        </is>
+      </c>
+      <c r="F36" s="53" t="n"/>
+      <c r="G36" s="53" t="n"/>
+      <c r="H36" s="53" t="n"/>
+      <c r="I36" s="53" t="inlineStr">
+        <is>
+          <t>30/06/2023</t>
+        </is>
+      </c>
+      <c r="J36" s="55" t="n">
+        <v>45.36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="53" t="n">
+        <v>31</v>
+      </c>
+      <c r="C37" s="53" t="n"/>
+      <c r="D37" s="53" t="n"/>
+      <c r="E37" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras</t>
+        </is>
+      </c>
+      <c r="F37" s="53" t="n"/>
+      <c r="G37" s="53" t="n"/>
+      <c r="H37" s="53" t="n"/>
+      <c r="I37" s="53" t="inlineStr">
+        <is>
+          <t>06/07/2023</t>
+        </is>
+      </c>
+      <c r="J37" s="55" t="n">
+        <v>124.07</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="53" t="n">
+        <v>32</v>
+      </c>
+      <c r="C38" s="53" t="inlineStr">
+        <is>
+          <t>DB Autoparts</t>
+        </is>
+      </c>
+      <c r="D38" s="53" t="inlineStr">
+        <is>
+          <t>12385900000183</t>
+        </is>
+      </c>
+      <c r="E38" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material de Consumo </t>
+        </is>
+      </c>
+      <c r="F38" s="53" t="n"/>
+      <c r="G38" s="53" t="inlineStr">
+        <is>
+          <t>30/06/2023</t>
+        </is>
+      </c>
+      <c r="H38" s="53" t="n"/>
+      <c r="I38" s="53" t="inlineStr">
+        <is>
+          <t>26/06/2023</t>
+        </is>
+      </c>
+      <c r="J38" s="55" t="n">
+        <v>506.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" s="53" t="n">
+        <v>33</v>
+      </c>
+      <c r="C39" s="53" t="inlineStr">
+        <is>
+          <t>DF ELETROTECNICA COMERCIO MANUTENCAO E LOCACAO DE EQUIPAMENTOS ELETRICOS EIRELI</t>
+        </is>
+      </c>
+      <c r="D39" s="53" t="inlineStr">
+        <is>
+          <t>31170338000115</t>
+        </is>
+      </c>
+      <c r="E39" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material de Consumo </t>
+        </is>
+      </c>
+      <c r="F39" s="53" t="n"/>
+      <c r="G39" s="53" t="inlineStr">
+        <is>
+          <t>07/07/2023</t>
+        </is>
+      </c>
+      <c r="H39" s="53" t="n"/>
+      <c r="I39" s="53" t="inlineStr">
+        <is>
+          <t>31/07/2023</t>
+        </is>
+      </c>
+      <c r="J39" s="55" t="n">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" s="53" t="n">
+        <v>34</v>
+      </c>
+      <c r="C40" s="53" t="inlineStr">
+        <is>
+          <t>ELETRO TRANSOL IND. E COM. DE MAT. ELET. LTDA</t>
+        </is>
+      </c>
+      <c r="D40" s="53" t="inlineStr">
+        <is>
+          <t>01847854000332</t>
+        </is>
+      </c>
+      <c r="E40" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material de Consumo </t>
+        </is>
+      </c>
+      <c r="F40" s="53" t="n"/>
+      <c r="G40" s="53" t="inlineStr">
+        <is>
+          <t>04/07/2023</t>
+        </is>
+      </c>
+      <c r="H40" s="53" t="n"/>
+      <c r="I40" s="53" t="inlineStr">
+        <is>
+          <t>01/08/2023</t>
+        </is>
+      </c>
+      <c r="J40" s="55" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="53" t="n">
+        <v>35</v>
+      </c>
+      <c r="C41" s="53" t="n"/>
+      <c r="D41" s="53" t="n"/>
+      <c r="E41" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F41" s="53" t="n"/>
+      <c r="G41" s="53" t="n"/>
+      <c r="H41" s="53" t="n"/>
+      <c r="I41" s="53" t="inlineStr">
+        <is>
+          <t>30/06/2023</t>
+        </is>
+      </c>
+      <c r="J41" s="55" t="n">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" s="53" t="n">
+        <v>36</v>
+      </c>
+      <c r="C42" s="53" t="n"/>
+      <c r="D42" s="53" t="n"/>
+      <c r="E42" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F42" s="53" t="n"/>
+      <c r="G42" s="53" t="n"/>
+      <c r="H42" s="53" t="n"/>
+      <c r="I42" s="53" t="inlineStr">
+        <is>
+          <t>30/06/2023</t>
+        </is>
+      </c>
+      <c r="J42" s="55" t="n">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="53" t="n">
+        <v>37</v>
+      </c>
+      <c r="C43" s="53" t="inlineStr">
+        <is>
+          <t>JK COMERCIO E REPRESENTACOES ELETRICOS LTDA - ME</t>
+        </is>
+      </c>
+      <c r="D43" s="53" t="inlineStr">
+        <is>
+          <t>26726948000112</t>
+        </is>
+      </c>
+      <c r="E43" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material de Consumo </t>
+        </is>
+      </c>
+      <c r="F43" s="53" t="n"/>
+      <c r="G43" s="53" t="inlineStr">
+        <is>
+          <t>27/07/2023</t>
+        </is>
+      </c>
+      <c r="H43" s="53" t="n"/>
+      <c r="I43" s="53" t="inlineStr">
+        <is>
+          <t>10/08/2023</t>
+        </is>
+      </c>
+      <c r="J43" s="55" t="n">
+        <v>144.99</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" s="53" t="n">
+        <v>38</v>
+      </c>
+      <c r="C44" s="53" t="inlineStr">
+        <is>
+          <t>BANCO DO BRASIL S.A.</t>
+        </is>
+      </c>
+      <c r="D44" s="53" t="inlineStr">
+        <is>
+          <t>00000000441210</t>
+        </is>
+      </c>
+      <c r="E44" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras</t>
+        </is>
+      </c>
+      <c r="F44" s="53" t="n"/>
+      <c r="G44" s="53" t="n"/>
+      <c r="H44" s="53" t="n"/>
+      <c r="I44" s="53" t="inlineStr">
+        <is>
+          <t>04/07/2023</t>
+        </is>
+      </c>
+      <c r="J44" s="55" t="n">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" s="53" t="n">
+        <v>39</v>
+      </c>
+      <c r="C45" s="53" t="n"/>
+      <c r="D45" s="53" t="n"/>
+      <c r="E45" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F45" s="53" t="n"/>
+      <c r="G45" s="53" t="n"/>
+      <c r="H45" s="53" t="n"/>
+      <c r="I45" s="53" t="inlineStr">
+        <is>
+          <t>31/07/2023</t>
+        </is>
+      </c>
+      <c r="J45" s="55" t="n">
+        <v>1531.48</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" s="53" t="n">
+        <v>40</v>
+      </c>
+      <c r="C46" s="53" t="n"/>
+      <c r="D46" s="53" t="n"/>
+      <c r="E46" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F46" s="53" t="n"/>
+      <c r="G46" s="53" t="n"/>
+      <c r="H46" s="53" t="n"/>
+      <c r="I46" s="53" t="inlineStr">
+        <is>
+          <t>31/07/2023</t>
+        </is>
+      </c>
+      <c r="J46" s="55" t="n">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" s="53" t="n">
+        <v>41</v>
+      </c>
+      <c r="C47" s="53" t="n"/>
+      <c r="D47" s="53" t="n"/>
+      <c r="E47" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras</t>
+        </is>
+      </c>
+      <c r="F47" s="53" t="n"/>
+      <c r="G47" s="53" t="n"/>
+      <c r="H47" s="53" t="n"/>
+      <c r="I47" s="53" t="inlineStr">
+        <is>
+          <t>10/08/2023</t>
+        </is>
+      </c>
+      <c r="J47" s="55" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" s="53" t="n">
+        <v>42</v>
+      </c>
+      <c r="C48" s="53" t="n"/>
+      <c r="D48" s="53" t="n"/>
+      <c r="E48" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras</t>
+        </is>
+      </c>
+      <c r="F48" s="53" t="n"/>
+      <c r="G48" s="53" t="n"/>
+      <c r="H48" s="53" t="n"/>
+      <c r="I48" s="53" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="J48" s="55" t="n">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" s="53" t="n">
+        <v>43</v>
+      </c>
+      <c r="C49" s="53" t="inlineStr">
+        <is>
+          <t>BANCO DO BRASIL S.A.</t>
+        </is>
+      </c>
+      <c r="D49" s="53" t="inlineStr">
+        <is>
+          <t>00000000441210</t>
+        </is>
+      </c>
+      <c r="E49" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras</t>
+        </is>
+      </c>
+      <c r="F49" s="53" t="n"/>
+      <c r="G49" s="53" t="n"/>
+      <c r="H49" s="53" t="n"/>
+      <c r="I49" s="53" t="inlineStr">
+        <is>
+          <t>10/08/2023</t>
+        </is>
+      </c>
+      <c r="J49" s="55" t="n">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" s="53" t="n">
+        <v>44</v>
+      </c>
+      <c r="C50" s="53" t="inlineStr">
+        <is>
+          <t>BANCO DO BRASIL S.A.</t>
+        </is>
+      </c>
+      <c r="D50" s="53" t="inlineStr">
+        <is>
+          <t>00000000441210</t>
+        </is>
+      </c>
+      <c r="E50" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras</t>
+        </is>
+      </c>
+      <c r="F50" s="53" t="n"/>
+      <c r="G50" s="53" t="n"/>
+      <c r="H50" s="53" t="n"/>
+      <c r="I50" s="53" t="inlineStr">
+        <is>
+          <t>02/08/2023</t>
+        </is>
+      </c>
+      <c r="J50" s="55" t="n">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" s="53" t="n">
+        <v>45</v>
+      </c>
+      <c r="C51" s="53" t="n"/>
+      <c r="D51" s="53" t="n"/>
+      <c r="E51" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras</t>
+        </is>
+      </c>
+      <c r="F51" s="53" t="n"/>
+      <c r="G51" s="53" t="n"/>
+      <c r="H51" s="53" t="n"/>
+      <c r="I51" s="53" t="inlineStr">
+        <is>
+          <t>26/09/2023</t>
+        </is>
+      </c>
+      <c r="J51" s="55" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" s="53" t="n">
+        <v>46</v>
+      </c>
+      <c r="C52" s="53" t="n"/>
+      <c r="D52" s="53" t="n"/>
+      <c r="E52" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F52" s="53" t="n"/>
+      <c r="G52" s="53" t="n"/>
+      <c r="H52" s="53" t="n"/>
+      <c r="I52" s="53" t="inlineStr">
+        <is>
+          <t>31/08/2023</t>
+        </is>
+      </c>
+      <c r="J52" s="55" t="n">
+        <v>1595.2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" s="53" t="n">
+        <v>47</v>
+      </c>
+      <c r="C53" s="53" t="n"/>
+      <c r="D53" s="53" t="n"/>
+      <c r="E53" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F53" s="53" t="n"/>
+      <c r="G53" s="53" t="n"/>
+      <c r="H53" s="53" t="n"/>
+      <c r="I53" s="53" t="inlineStr">
+        <is>
+          <t>31/08/2023</t>
+        </is>
+      </c>
+      <c r="J53" s="55" t="n">
+        <v>17.31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" s="53" t="n">
+        <v>48</v>
+      </c>
+      <c r="C54" s="53" t="inlineStr">
+        <is>
+          <t>ALESSANDRO BORGES DE SOUSA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D54" s="53" t="inlineStr">
+        <is>
+          <t>58368132134</t>
+        </is>
+      </c>
+      <c r="E54" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F54" s="53" t="n"/>
+      <c r="G54" s="53" t="n"/>
+      <c r="H54" s="53" t="n"/>
+      <c r="I54" s="53" t="inlineStr">
+        <is>
+          <t>20/04/2023</t>
+        </is>
+      </c>
+      <c r="J54" s="55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" s="53" t="n">
+        <v>49</v>
+      </c>
+      <c r="C55" s="53" t="inlineStr">
+        <is>
+          <t>ALESSANDRO BORGES DE SOUSA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D55" s="53" t="inlineStr">
+        <is>
+          <t>58368132134</t>
+        </is>
+      </c>
+      <c r="E55" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F55" s="53" t="n"/>
+      <c r="G55" s="53" t="n"/>
+      <c r="H55" s="53" t="n"/>
+      <c r="I55" s="53" t="inlineStr">
+        <is>
+          <t>19/05/2023</t>
+        </is>
+      </c>
+      <c r="J55" s="55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" s="53" t="n">
+        <v>50</v>
+      </c>
+      <c r="C56" s="53" t="inlineStr">
+        <is>
+          <t>ALESSANDRO BORGES DE SOUSA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D56" s="53" t="inlineStr">
+        <is>
+          <t>58368132134</t>
+        </is>
+      </c>
+      <c r="E56" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F56" s="53" t="n"/>
+      <c r="G56" s="53" t="n"/>
+      <c r="H56" s="53" t="n"/>
+      <c r="I56" s="53" t="inlineStr">
+        <is>
+          <t>20/06/2023</t>
+        </is>
+      </c>
+      <c r="J56" s="55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C57" s="53" t="inlineStr">
+        <is>
+          <t>ALESSANDRO BORGES DE SOUSA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D57" s="53" t="inlineStr">
+        <is>
+          <t>58368132134</t>
+        </is>
+      </c>
+      <c r="E57" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F57" s="53" t="n"/>
+      <c r="G57" s="53" t="n"/>
+      <c r="H57" s="53" t="n"/>
+      <c r="I57" s="53" t="inlineStr">
+        <is>
+          <t>21/07/2023</t>
+        </is>
+      </c>
+      <c r="J57" s="55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C58" s="53" t="inlineStr">
+        <is>
+          <t>ALESSANDRO BORGES DE SOUSA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D58" s="53" t="inlineStr">
+        <is>
+          <t>58368132134</t>
+        </is>
+      </c>
+      <c r="E58" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F58" s="53" t="n"/>
+      <c r="G58" s="53" t="n"/>
+      <c r="H58" s="53" t="n"/>
+      <c r="I58" s="53" t="inlineStr">
+        <is>
+          <t>22/08/2023</t>
+        </is>
+      </c>
+      <c r="J58" s="55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="53" t="n">
+        <v>53</v>
+      </c>
+      <c r="C59" s="53" t="inlineStr">
+        <is>
+          <t>ALESSANDRO BORGES DE SOUSA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D59" s="53" t="inlineStr">
+        <is>
+          <t>58368132134</t>
+        </is>
+      </c>
+      <c r="E59" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F59" s="53" t="n"/>
+      <c r="G59" s="53" t="n"/>
+      <c r="H59" s="53" t="n"/>
+      <c r="I59" s="53" t="inlineStr">
+        <is>
+          <t>21/09/2023</t>
+        </is>
+      </c>
+      <c r="J59" s="55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="53" t="n">
+        <v>54</v>
+      </c>
+      <c r="C60" s="53" t="inlineStr">
+        <is>
+          <t>ALESSANDRO BORGES DE SOUSA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D60" s="53" t="inlineStr">
+        <is>
+          <t>58368132134</t>
+        </is>
+      </c>
+      <c r="E60" s="53" t="inlineStr">
+        <is>
+          <t>Auxílio Financeiro a Pesquisador</t>
+        </is>
+      </c>
+      <c r="F60" s="53" t="n"/>
+      <c r="G60" s="53" t="n"/>
+      <c r="H60" s="53" t="n"/>
+      <c r="I60" s="53" t="inlineStr">
+        <is>
+          <t>23/10/2023</t>
+        </is>
+      </c>
+      <c r="J60" s="55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="53" t="n">
+        <v>55</v>
+      </c>
+      <c r="C61" s="53" t="n"/>
+      <c r="D61" s="53" t="n"/>
+      <c r="E61" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F61" s="53" t="n"/>
+      <c r="G61" s="53" t="n"/>
+      <c r="H61" s="53" t="n"/>
+      <c r="I61" s="53" t="inlineStr">
+        <is>
+          <t>29/09/2023</t>
+        </is>
+      </c>
+      <c r="J61" s="55" t="n">
+        <v>1346.1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" s="53" t="n">
+        <v>56</v>
+      </c>
+      <c r="C62" s="53" t="n"/>
+      <c r="D62" s="53" t="n"/>
+      <c r="E62" s="53" t="inlineStr">
+        <is>
+          <t>Rendimentos de Aplicações Financeiras</t>
+        </is>
+      </c>
+      <c r="F62" s="53" t="n"/>
+      <c r="G62" s="53" t="n"/>
+      <c r="H62" s="53" t="n"/>
+      <c r="I62" s="53" t="inlineStr">
+        <is>
+          <t>29/09/2023</t>
+        </is>
+      </c>
+      <c r="J62" s="55" t="n">
+        <v>24.47</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" s="53" t="n">
+        <v>57</v>
+      </c>
+      <c r="C63" s="53" t="inlineStr">
+        <is>
+          <t>BANCO DO BRASIL S.A.</t>
+        </is>
+      </c>
+      <c r="D63" s="53" t="inlineStr">
+        <is>
+          <t>00000000441210</t>
+        </is>
+      </c>
+      <c r="E63" s="53" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras</t>
+        </is>
+      </c>
+      <c r="F63" s="53" t="n"/>
+      <c r="G63" s="53" t="n"/>
+      <c r="H63" s="53" t="n"/>
+      <c r="I63" s="53" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="J63" s="55" t="n">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="56" t="inlineStr">
+        <is>
+          <t>TOTAL DE DESPESAS NESTA</t>
+        </is>
+      </c>
+      <c r="J64" s="57">
+        <f>SUM(J10:J62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="56" t="inlineStr">
+        <is>
+          <t>TOTAL DE DESPESAS ACUMULADAS</t>
+        </is>
+      </c>
+      <c r="J65" s="58" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:J7"/>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A64:I64"/>
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A65:I65"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="G5:H5"/>
